--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value708.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value708.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.531513194154131</v>
+        <v>1.142924189567566</v>
       </c>
       <c r="B1">
-        <v>2.523346060885035</v>
+        <v>2.211016416549683</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.314174924632138</v>
+        <v>2.229090929031372</v>
       </c>
       <c r="E1">
-        <v>0.7554366404141375</v>
+        <v>1.077126383781433</v>
       </c>
     </row>
   </sheetData>
